--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.516543666666667</v>
+        <v>0.292742</v>
       </c>
       <c r="H2">
-        <v>7.549631</v>
+        <v>0.8782260000000001</v>
       </c>
       <c r="I2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="J2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1571371807861111</v>
+        <v>0.01827929838333333</v>
       </c>
       <c r="R2">
-        <v>1.414234627075</v>
+        <v>0.16451368545</v>
       </c>
       <c r="S2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
       <c r="T2">
-        <v>0.4692469132610314</v>
+        <v>0.1005821958520865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.813791</v>
       </c>
       <c r="I3">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="J3">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>1.463718399075</v>
       </c>
       <c r="S3">
-        <v>0.4856657640110924</v>
+        <v>0.8949043375045497</v>
       </c>
       <c r="T3">
-        <v>0.4856657640110925</v>
+        <v>0.8949043375045498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2418006666666667</v>
+        <v>0.01313633333333333</v>
       </c>
       <c r="H4">
-        <v>0.7254020000000001</v>
+        <v>0.039409</v>
       </c>
       <c r="I4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="J4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01509843662777778</v>
+        <v>0.0008202545472222223</v>
       </c>
       <c r="R4">
-        <v>0.13588592965</v>
+        <v>0.007382290925</v>
       </c>
       <c r="S4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363867</v>
       </c>
       <c r="T4">
-        <v>0.0450873227278762</v>
+        <v>0.004513466643363868</v>
       </c>
     </row>
   </sheetData>
